--- a/tests/test_examples/expected_files/results_MPC_example_2018_01_01__02_00_00.xlsx
+++ b/tests/test_examples/expected_files/results_MPC_example_2018_01_01__02_00_00.xlsx
@@ -467,10 +467,10 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>3.234319671879219</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.234319671879219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         <v>43101.125</v>
       </c>
       <c r="B3" t="n">
-        <v>3.326948242879217</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.326948242879217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,10 +489,10 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>3.404062528879216</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.404062528879216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>3.387562528879218</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.387562528879218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>43101.25</v>
       </c>
       <c r="B6" t="n">
-        <v>6.031591099879217</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.031591099879217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>5.513848242879217</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.513848242879217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>5.892104150588093</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.892104150588093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         <v>43101.375</v>
       </c>
       <c r="B9" t="n">
-        <v>4.233371663870739</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.233371663870739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -555,10 +555,10 @@
         <v>43101.41666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>2.63783972484748</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.63783972484748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -566,10 +566,10 @@
         <v>43101.45833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>4.163592298136437</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.163592298136437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -577,10 +577,10 @@
         <v>43101.5</v>
       </c>
       <c r="B12" t="n">
-        <v>4.126183280857458</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.126183280857458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>1.039761519541608</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.039761519541608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -599,10 +599,10 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>2.763341085219668</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.763341085219668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -610,10 +610,10 @@
         <v>43101.625</v>
       </c>
       <c r="B15" t="n">
-        <v>3.188620470333499</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.188620470333499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -621,10 +621,10 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>3.158726194507999</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.158726194507999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -632,10 +632,10 @@
         <v>43101.70833333334</v>
       </c>
       <c r="B17" t="n">
-        <v>1.839342857</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.839342857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -643,10 +643,10 @@
         <v>43101.75</v>
       </c>
       <c r="B18" t="n">
-        <v>3.801926452048171</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.801926452048171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -654,10 +654,10 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B19" t="n">
-        <v>10.27604038519426</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>10.27604038519426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -665,10 +665,10 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>14.78920127827568</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>14.78920127827568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -676,10 +676,10 @@
         <v>43101.875</v>
       </c>
       <c r="B21" t="n">
-        <v>6.937276814879217</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>6.937276814879217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -687,10 +687,10 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>3.803003162063865</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.803003162063865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -698,10 +698,10 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>3.291604667955744</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.291604667955744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -709,10 +709,10 @@
         <v>43102</v>
       </c>
       <c r="B24" t="n">
-        <v>3.341885212311558</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.341885212311558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -720,10 +720,10 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>1.400100696648204</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.400100696648204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -731,10 +731,10 @@
         <v>43102.08333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>3.255176814879217</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.255176814879217</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.18501212811061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136.5281985133801</v>
+        <v>2106.75</v>
       </c>
     </row>
     <row r="6">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2757.066666666667</v>
       </c>
     </row>
     <row r="7">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.420391566326864</v>
+        <v>22.37625</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.967635259299</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.720768851077258</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -955,13 +955,13 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.854136082627377</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.854136082627377</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         <v>43101.125</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.549585714</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.549585714</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.6267</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6267</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.771141997591101</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.771141997591101</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>43101.25</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.202756082034924</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.202756082034924</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.529049211325205</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5.529049211325205</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.907222702238744</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.907222702238744</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>43101.375</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.144218023214221</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004434173400726668</v>
+        <v>4.252761373395888</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004434173400726668</v>
+        <v>1.108543350181667</v>
       </c>
     </row>
     <row r="10">
@@ -1094,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.200566132275429</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0330909158605925</v>
+        <v>2.6858457968573</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0330909158605925</v>
+        <v>4.886411929132729</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>46.5148636963539</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2035856265144559</v>
+        <v>4.381542932260076</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2035856265144559</v>
+        <v>50.89640662861397</v>
       </c>
     </row>
     <row r="12">
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4.562246680843671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07179657458966061</v>
+        <v>13.38689696657148</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07179657458966061</v>
+        <v>17.94914364741515</v>
       </c>
     </row>
     <row r="13">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03016705145839208</v>
+        <v>1.782733960498358</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03016705145839208</v>
+        <v>1.782733960498358</v>
       </c>
     </row>
     <row r="14">
@@ -1159,13 +1159,13 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.114858518799969</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.114858518799969</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>43101.625</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3.212498410367769</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.212498410367769</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.398457143</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.398457143</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>43101.70833333334</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.839342857</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.839342857</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>43101.75</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2.005842857</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.005842857</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8.649585714000001</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.649585714000001</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1261,13 +1261,13 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>12.11352857</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>12.11352857</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1278,13 +1278,13 @@
         <v>43101.875</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>14.91470945586666</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>14.91470945586666</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.066535846583075</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.066535846583075</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1312,13 +1312,13 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.813671429</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.813671429</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1329,13 +1329,13 @@
         <v>43102</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.577228571</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.577228571</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1346,13 +1346,13 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.549614286</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.549614286</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>43102.08333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.477814286</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.477814286</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004434173400726668</v>
+        <v>1.108543350181667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004434173400726668</v>
+        <v>1.108543350181667</v>
       </c>
     </row>
     <row r="10">
@@ -1528,13 +1528,13 @@
         <v>43101.41666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.386317036015396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0330909158605925</v>
+        <v>4.886411929132729</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0330909158605925</v>
+        <v>8.272728965148124</v>
       </c>
     </row>
     <row r="11">
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2035856265144559</v>
+        <v>50.89640662861397</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2035856265144559</v>
+        <v>50.89640662861397</v>
       </c>
     </row>
     <row r="12">
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07179657458966061</v>
+        <v>17.94914364741515</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07179657458966061</v>
+        <v>17.94914364741515</v>
       </c>
     </row>
     <row r="13">
@@ -1570,13 +1570,13 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5.759028904099662</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03016705145839208</v>
+        <v>1.782733960498358</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03016705145839208</v>
+        <v>7.54176286459802</v>
       </c>
     </row>
     <row r="14">
@@ -1807,16 +1807,16 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>2.777362528879219</v>
+        <v>1.397178939627377</v>
       </c>
       <c r="C2" t="n">
         <v>0.456957143</v>
       </c>
       <c r="D2" t="n">
-        <v>3.234319671879219</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.854136082627377</v>
       </c>
     </row>
     <row r="3">
@@ -1824,16 +1824,16 @@
         <v>43101.125</v>
       </c>
       <c r="B3" t="n">
-        <v>2.777362528879217</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.549585714</v>
       </c>
       <c r="D3" t="n">
-        <v>3.326948242879217</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.549585714</v>
       </c>
     </row>
     <row r="4">
@@ -1841,16 +1841,16 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>2.777362528879216</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.6267</v>
       </c>
       <c r="D4" t="n">
-        <v>3.404062528879216</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6267</v>
       </c>
     </row>
     <row r="5">
@@ -1858,16 +1858,16 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>2.777362528879218</v>
+        <v>3.160941997591101</v>
       </c>
       <c r="C5" t="n">
         <v>0.6102</v>
       </c>
       <c r="D5" t="n">
-        <v>3.387562528879218</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.771141997591101</v>
       </c>
     </row>
     <row r="6">
@@ -1875,16 +1875,16 @@
         <v>43101.25</v>
       </c>
       <c r="B6" t="n">
-        <v>2.777362528879217</v>
+        <v>2.948527511034924</v>
       </c>
       <c r="C6" t="n">
         <v>3.254228571</v>
       </c>
       <c r="D6" t="n">
-        <v>6.031591099879217</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.202756082034924</v>
       </c>
     </row>
     <row r="7">
@@ -1892,16 +1892,16 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>2.777362528879217</v>
+        <v>2.792563497325205</v>
       </c>
       <c r="C7" t="n">
         <v>2.736485714</v>
       </c>
       <c r="D7" t="n">
-        <v>5.513848242879217</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.529049211325205</v>
       </c>
     </row>
     <row r="8">
@@ -1909,16 +1909,16 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>2.436461293588093</v>
+        <v>2.451579845238745</v>
       </c>
       <c r="C8" t="n">
         <v>3.455642857</v>
       </c>
       <c r="D8" t="n">
-        <v>5.892104150588093</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.907222702238744</v>
       </c>
     </row>
     <row r="9">
@@ -1926,16 +1926,16 @@
         <v>43101.375</v>
       </c>
       <c r="B9" t="n">
-        <v>1.673534408271465</v>
+        <v>1.688489944395888</v>
       </c>
       <c r="C9" t="n">
         <v>2.564271429</v>
       </c>
       <c r="D9" t="n">
-        <v>4.233371663870739</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004434173400726668</v>
+        <v>4.252761373395888</v>
       </c>
     </row>
     <row r="10">
@@ -1943,16 +1943,16 @@
         <v>43101.41666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>1.380344926708073</v>
+        <v>1.3952600828573</v>
       </c>
       <c r="C10" t="n">
         <v>1.290585714</v>
       </c>
       <c r="D10" t="n">
-        <v>2.63783972484748</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0330909158605925</v>
+        <v>2.6858457968573</v>
       </c>
     </row>
     <row r="11">
@@ -1960,16 +1960,16 @@
         <v>43101.45833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06824935365089192</v>
+        <v>0.08261436126007536</v>
       </c>
       <c r="C11" t="n">
         <v>4.298928571</v>
       </c>
       <c r="D11" t="n">
-        <v>4.163592298136437</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2035856265144559</v>
+        <v>4.381542932260076</v>
       </c>
     </row>
     <row r="12">
@@ -1977,16 +1977,16 @@
         <v>43101.5</v>
       </c>
       <c r="B12" t="n">
-        <v>2.262136998447119</v>
+        <v>11.45105410957148</v>
       </c>
       <c r="C12" t="n">
         <v>1.935842857</v>
       </c>
       <c r="D12" t="n">
-        <v>4.126183280857458</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07179657458966061</v>
+        <v>13.38689696657148</v>
       </c>
     </row>
     <row r="13">
@@ -1994,16 +1994,16 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7128053894983584</v>
       </c>
       <c r="C13" t="n">
         <v>1.069928571</v>
       </c>
       <c r="D13" t="n">
-        <v>1.039761519541608</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03016705145839208</v>
+        <v>1.782733960498358</v>
       </c>
     </row>
     <row r="14">
@@ -2011,16 +2011,16 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>1.704655371219668</v>
+        <v>1.056172804799969</v>
       </c>
       <c r="C14" t="n">
         <v>1.058685714</v>
       </c>
       <c r="D14" t="n">
-        <v>2.763341085219668</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.114858518799969</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         <v>43101.625</v>
       </c>
       <c r="B15" t="n">
-        <v>1.468863327333499</v>
+        <v>1.492741267367769</v>
       </c>
       <c r="C15" t="n">
         <v>1.719757143</v>
       </c>
       <c r="D15" t="n">
-        <v>3.188620470333499</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.212498410367769</v>
       </c>
     </row>
     <row r="16">
@@ -2045,16 +2045,16 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>1.760269051507999</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1.398457143</v>
       </c>
       <c r="D16" t="n">
-        <v>3.158726194507999</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.398457143</v>
       </c>
     </row>
     <row r="17">
@@ -2068,10 +2068,10 @@
         <v>1.839342857</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.839342857</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2079,16 +2079,16 @@
         <v>43101.75</v>
       </c>
       <c r="B18" t="n">
-        <v>1.796083595048171</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>2.005842857</v>
       </c>
       <c r="D18" t="n">
-        <v>3.801926452048171</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.005842857</v>
       </c>
     </row>
     <row r="19">
@@ -2096,16 +2096,16 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B19" t="n">
-        <v>1.62645467119426</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>8.649585714000001</v>
       </c>
       <c r="D19" t="n">
-        <v>10.27604038519426</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8.649585714000001</v>
       </c>
     </row>
     <row r="20">
@@ -2113,16 +2113,16 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>2.675672708275679</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>12.11352857</v>
       </c>
       <c r="D20" t="n">
-        <v>14.78920127827568</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>12.11352857</v>
       </c>
     </row>
     <row r="21">
@@ -2130,16 +2130,16 @@
         <v>43101.875</v>
       </c>
       <c r="B21" t="n">
-        <v>2.777362528879217</v>
+        <v>10.75479516986666</v>
       </c>
       <c r="C21" t="n">
         <v>4.159914286</v>
       </c>
       <c r="D21" t="n">
-        <v>6.937276814879217</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>14.91470945586666</v>
       </c>
     </row>
     <row r="22">
@@ -2147,16 +2147,16 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>2.113374591063865</v>
+        <v>1.376907275583075</v>
       </c>
       <c r="C22" t="n">
         <v>1.689628571</v>
       </c>
       <c r="D22" t="n">
-        <v>3.803003162063865</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.066535846583075</v>
       </c>
     </row>
     <row r="23">
@@ -2164,16 +2164,16 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>2.477933238955743</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0.813671429</v>
       </c>
       <c r="D23" t="n">
-        <v>3.291604667955744</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.813671429</v>
       </c>
     </row>
     <row r="24">
@@ -2181,16 +2181,16 @@
         <v>43102</v>
       </c>
       <c r="B24" t="n">
-        <v>2.764656641311558</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0.577228571</v>
       </c>
       <c r="D24" t="n">
-        <v>3.341885212311558</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.577228571</v>
       </c>
     </row>
     <row r="25">
@@ -2198,16 +2198,16 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8504864106482043</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0.549614286</v>
       </c>
       <c r="D25" t="n">
-        <v>1.400100696648204</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.549614286</v>
       </c>
     </row>
     <row r="26">
@@ -2215,16 +2215,16 @@
         <v>43102.08333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>2.777362528879217</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.477814286</v>
       </c>
       <c r="D26" t="n">
-        <v>3.255176814879217</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.477814286</v>
       </c>
     </row>
   </sheetData>
@@ -2273,16 +2273,16 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>11.7711196352155</v>
+        <v>5.921574975951801</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7711196352155</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5.921574975951801</v>
       </c>
       <c r="E2" t="n">
-        <v>5.294106357053451</v>
+        <v>26.64435025980561</v>
       </c>
     </row>
     <row r="3">
@@ -2290,16 +2290,16 @@
         <v>43101.125</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7390862066888</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7390862066888</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.840031704724749</v>
+        <v>13.36468957599664</v>
       </c>
     </row>
     <row r="4">
@@ -2307,16 +2307,16 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>11.67518451160261</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.67518451160261</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.224896988379328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2324,16 +2324,16 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7711196352155</v>
+        <v>13.39682019424264</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7711196352155</v>
+        <v>13.31630662</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6615152856582303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2341,13 +2341,13 @@
         <v>43101.25</v>
       </c>
       <c r="B6" t="n">
-        <v>11.77111963521549</v>
+        <v>12.49655733424264</v>
       </c>
       <c r="C6" t="n">
-        <v>11.77111963521549</v>
+        <v>12.41604376</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2358,13 +2358,13 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>11.80320830614717</v>
+        <v>11.86780923424264</v>
       </c>
       <c r="C7" t="n">
-        <v>1.466490191715433</v>
+        <v>11.78729566</v>
       </c>
       <c r="D7" t="n">
-        <v>10.33671811443174</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>10.41089546614717</v>
+        <v>10.47549639424264</v>
       </c>
       <c r="C8" t="n">
         <v>10.39498282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01591264614717052</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>43101.375</v>
       </c>
       <c r="B9" t="n">
-        <v>7.22888668614717</v>
+        <v>7.293487614242636</v>
       </c>
       <c r="C9" t="n">
         <v>7.21297404</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01591264614717052</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>43101.41666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>5.978587315147171</v>
+        <v>6.043188243242636</v>
       </c>
       <c r="C10" t="n">
         <v>5.962674669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01591264614717052</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2426,13 +2426,13 @@
         <v>43101.45833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3069244171471705</v>
+        <v>0.3715253452426365</v>
       </c>
       <c r="C11" t="n">
         <v>0.291011771</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01591264614717052</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2443,16 +2443,16 @@
         <v>43101.5</v>
       </c>
       <c r="B12" t="n">
-        <v>10.33671811443174</v>
+        <v>52.325</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>10.33671811443174</v>
+        <v>52.325</v>
       </c>
       <c r="E12" t="n">
-        <v>10.32080546828457</v>
+        <v>52.24448642575736</v>
       </c>
     </row>
     <row r="13">
@@ -2460,16 +2460,16 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.222688483592738</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.008074284</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.214614199592738</v>
       </c>
       <c r="E13" t="n">
-        <v>7.286232511401636</v>
+        <v>52.325</v>
       </c>
     </row>
     <row r="14">
@@ -2477,16 +2477,16 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>7.727510458321057</v>
+        <v>4.787821944940395</v>
       </c>
       <c r="C14" t="n">
         <v>4.653638737</v>
       </c>
       <c r="D14" t="n">
-        <v>3.073871721321058</v>
+        <v>0.1341832079403957</v>
       </c>
       <c r="E14" t="n">
-        <v>10.33671811443174</v>
+        <v>52.325</v>
       </c>
     </row>
     <row r="15">
@@ -2494,16 +2494,16 @@
         <v>43101.625</v>
       </c>
       <c r="B15" t="n">
-        <v>6.623263568447954</v>
+        <v>6.730931781940396</v>
       </c>
       <c r="C15" t="n">
         <v>6.596748574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02651499444795391</v>
+        <v>0.1341832079403957</v>
       </c>
       <c r="E15" t="n">
-        <v>10.33671811443174</v>
+        <v>52.325</v>
       </c>
     </row>
     <row r="16">
@@ -2511,16 +2511,16 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>7.873961231447954</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.847446237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02651499444795391</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.33671811443174</v>
+        <v>44.3433705550596</v>
       </c>
     </row>
     <row r="17">
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.405698799983783</v>
+        <v>35.31286976631884</v>
       </c>
     </row>
     <row r="18">
@@ -2545,16 +2545,16 @@
         <v>43101.75</v>
       </c>
       <c r="B18" t="n">
-        <v>7.969934135230936</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7.969934135230936</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>25.83785739473363</v>
       </c>
     </row>
     <row r="19">
@@ -2562,16 +2562,16 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B19" t="n">
-        <v>7.25596612114717</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.25596612114717</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.49078851382524</v>
       </c>
     </row>
     <row r="20">
@@ -2579,16 +2579,16 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>11.93675475030044</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.579958661</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.356796089300443</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.340883443153272</v>
+        <v>11.81135031878672</v>
       </c>
     </row>
     <row r="21">
@@ -2596,16 +2596,16 @@
         <v>43101.875</v>
       </c>
       <c r="B21" t="n">
-        <v>12.39041503744697</v>
+        <v>47.9794677186606</v>
       </c>
       <c r="C21" t="n">
-        <v>2.053696923015234</v>
+        <v>7.373189588</v>
       </c>
       <c r="D21" t="n">
-        <v>10.33671811443174</v>
+        <v>40.6062781306606</v>
       </c>
       <c r="E21" t="n">
-        <v>10.33671811443174</v>
+        <v>52.325</v>
       </c>
     </row>
     <row r="22">
@@ -2613,16 +2613,16 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>9.352775226447953</v>
+        <v>6.093526585699433</v>
       </c>
       <c r="C22" t="n">
-        <v>9.326260231999999</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02651499444795391</v>
+        <v>6.093526585699433</v>
       </c>
       <c r="E22" t="n">
-        <v>10.33671811443174</v>
+        <v>48.95808314575903</v>
       </c>
     </row>
     <row r="23">
@@ -2630,16 +2630,16 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>10.93675181444795</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>10.91023682</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02651499444795391</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>10.33671811443174</v>
+        <v>37.91711655679155</v>
       </c>
     </row>
     <row r="24">
@@ -2647,16 +2647,16 @@
         <v>43102</v>
       </c>
       <c r="B24" t="n">
-        <v>11.87753116444795</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>11.85101617</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02651499444795391</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>10.33671811443174</v>
+        <v>25.9466953121862</v>
       </c>
     </row>
     <row r="25">
@@ -2664,16 +2664,16 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>3.584960931698568</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.584960931698568</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.14868046168235</v>
+        <v>13.09308468147299</v>
       </c>
     </row>
     <row r="26">
@@ -2681,10 +2681,10 @@
         <v>43102.08333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>11.86755194340633</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>11.86755194340633</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>11.7711196352155</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.401956244784499</v>
+        <v>13.17307588</v>
       </c>
       <c r="D2" t="n">
         <v>13.17307588</v>
@@ -2974,10 +2974,10 @@
         <v>43101.125</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7390862066888</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.432731853311202</v>
+        <v>13.17181806</v>
       </c>
       <c r="D3" t="n">
         <v>13.17181806</v>
@@ -2988,10 +2988,10 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>11.67518451160261</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.595283358397385</v>
+        <v>13.27046787</v>
       </c>
       <c r="D4" t="n">
         <v>13.27046787</v>
@@ -3002,10 +3002,10 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7711196352155</v>
+        <v>13.31630662</v>
       </c>
       <c r="C5" t="n">
-        <v>1.545186984784504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>13.31630662</v>
@@ -3016,10 +3016,10 @@
         <v>43101.25</v>
       </c>
       <c r="B6" t="n">
-        <v>11.77111963521549</v>
+        <v>12.41604376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6449241247845094</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>12.41604376</v>
@@ -3030,10 +3030,10 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>1.466490191715433</v>
+        <v>11.78729566</v>
       </c>
       <c r="C7" t="n">
-        <v>10.32080546828457</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>11.78729566</v>
@@ -3114,10 +3114,10 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.008074284</v>
       </c>
       <c r="C13" t="n">
-        <v>3.008074284</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>3.008074284</v>
@@ -3156,10 +3156,10 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>7.847446237</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>7.847446237</v>
@@ -3184,10 +3184,10 @@
         <v>43101.75</v>
       </c>
       <c r="B18" t="n">
-        <v>7.969934135230936</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.388344331769064</v>
+        <v>9.358278467</v>
       </c>
       <c r="D18" t="n">
         <v>9.358278467</v>
@@ -3212,10 +3212,10 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>6.579958661</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>6.579958661</v>
@@ -3226,10 +3226,10 @@
         <v>43101.875</v>
       </c>
       <c r="B21" t="n">
-        <v>2.053696923015234</v>
+        <v>7.373189588</v>
       </c>
       <c r="C21" t="n">
-        <v>5.319492664984765</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>7.373189588</v>
@@ -3240,10 +3240,10 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
         <v>9.326260231999999</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>9.326260231999999</v>
@@ -3254,10 +3254,10 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>10.91023682</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>10.91023682</v>
@@ -3268,10 +3268,10 @@
         <v>43102</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>11.85101617</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>11.85101617</v>
@@ -3282,10 +3282,10 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>3.584960931698568</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>9.161522658301433</v>
+        <v>12.74648359</v>
       </c>
       <c r="D25" t="n">
         <v>12.74648359</v>
@@ -3296,10 +3296,10 @@
         <v>43102.08333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>11.86755194340633</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.131589616593674</v>
+        <v>12.99914156</v>
       </c>
       <c r="D26" t="n">
         <v>12.99914156</v>
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.20283593306458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3716.544356446339</v>
+        <v>58998.22712595509</v>
       </c>
     </row>
     <row r="5">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>-4.794990885852569</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_examples/expected_files/results_MPC_example_2018_01_01__02_00_00.xlsx
+++ b/tests/test_examples/expected_files/results_MPC_example_2018_01_01__02_00_00.xlsx
@@ -15,10 +15,11 @@
     <sheet name="dhwSourceBus__Building1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="spaceHeatingBus__Building1" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="shDemandBus__Building1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="costs__Building1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="env_impacts__Building1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="capStorages__Building1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="capTransformers__Building1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="storage_content__Building1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="costs__Building1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="env_impacts__Building1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="capStorages__Building1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="capTransformers__Building1" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -748,6 +749,70 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>electricityResource__Building1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>naturalGasResource__Building1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58998.22712595509</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-4.794990885852569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -804,21 +869,21 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>electricalStorage__Building1</t>
+          <t>shStorage__Building1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757.066666666667</v>
+        <v>22.37625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>shStorage__Building1</t>
+          <t>electricalStorage__Building1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.37625</v>
+        <v>2757.066666666667</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -848,21 +913,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>electricalStorage__Building1</t>
+          <t>shStorage__Building1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>shStorage__Building1</t>
+          <t>electricalStorage__Building1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2238,7 +2303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2262,11 +2327,6 @@
           <t>(('shSourceBus__Building1', 'shStorage__Building1'), 'flow')</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>storage_content</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -2281,9 +2341,6 @@
       <c r="D2" t="n">
         <v>5.921574975951801</v>
       </c>
-      <c r="E2" t="n">
-        <v>26.64435025980561</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -2298,9 +2355,6 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>13.36468957599664</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -2315,9 +2369,6 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -2332,9 +2383,6 @@
       <c r="D5" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2349,9 +2397,6 @@
       <c r="D6" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2366,9 +2411,6 @@
       <c r="D7" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2383,9 +2425,6 @@
       <c r="D8" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2400,9 +2439,6 @@
       <c r="D9" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2417,9 +2453,6 @@
       <c r="D10" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2434,9 +2467,6 @@
       <c r="D11" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2451,9 +2481,6 @@
       <c r="D12" t="n">
         <v>52.325</v>
       </c>
-      <c r="E12" t="n">
-        <v>52.24448642575736</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2468,9 +2495,6 @@
       <c r="D13" t="n">
         <v>0.214614199592738</v>
       </c>
-      <c r="E13" t="n">
-        <v>52.325</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2485,9 +2509,6 @@
       <c r="D14" t="n">
         <v>0.1341832079403957</v>
       </c>
-      <c r="E14" t="n">
-        <v>52.325</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2502,9 +2523,6 @@
       <c r="D15" t="n">
         <v>0.1341832079403957</v>
       </c>
-      <c r="E15" t="n">
-        <v>52.325</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2519,9 +2537,6 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
-        <v>44.3433705550596</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2536,9 +2551,6 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>35.31286976631884</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2553,9 +2565,6 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>25.83785739473363</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2570,9 +2579,6 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>18.49078851382524</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2587,9 +2593,6 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>11.81135031878672</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2604,9 +2607,6 @@
       <c r="D21" t="n">
         <v>40.6062781306606</v>
       </c>
-      <c r="E21" t="n">
-        <v>52.325</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2616,13 +2616,10 @@
         <v>6.093526585699433</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>6.093526585699433</v>
       </c>
       <c r="D22" t="n">
-        <v>6.093526585699433</v>
-      </c>
-      <c r="E22" t="n">
-        <v>48.95808314575903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2638,9 +2635,6 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="n">
-        <v>37.91711655679155</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2655,9 +2649,6 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="n">
-        <v>25.9466953121862</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2672,9 +2663,6 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="n">
-        <v>13.09308468147299</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2687,9 +2675,6 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3240,10 +3225,10 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6.093526585699433</v>
       </c>
       <c r="C22" t="n">
-        <v>9.326260231999999</v>
+        <v>3.232733646300566</v>
       </c>
       <c r="D22" t="n">
         <v>9.326260231999999</v>
@@ -3622,7 +3607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3631,48 +3616,290 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shStorage__B001_storage_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>electricalStorage__B001_storage_content</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>electricityResource__Building1</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>43101.08333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26.64435025980561</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81.8440278108984</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>naturalGasResource__Building1</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>43101.125</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.36468957599664</v>
+      </c>
+      <c r="C3" t="n">
+        <v>81.20497465508444</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Investment</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>43101.16666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>58998.22712595509</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80.47625372485189</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Feed-in</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>43101.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.794990885852569</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>76.09120489044363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>43101.25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68.87869781831</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>43101.29166666666</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>62.44957082839697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>43101.33333333334</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>55.58070722114262</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>43101.375</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>51.92463975228887</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>43101.41666666666</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54.97232508470272</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>43101.45833333334</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54.97232508470272</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>43101.5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>52.24448642575736</v>
+      </c>
+      <c r="C12" t="n">
+        <v>54.97232508470272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>43101.54166666666</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52.325</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.15545109839242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43101.58333333334</v>
+      </c>
+      <c r="B14" t="n">
+        <v>52.325</v>
+      </c>
+      <c r="C14" t="n">
+        <v>57.69631328583431</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43101.625</v>
+      </c>
+      <c r="B15" t="n">
+        <v>52.325</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.96085001796482</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43101.66666666666</v>
+      </c>
+      <c r="B16" t="n">
+        <v>44.3433705550596</v>
+      </c>
+      <c r="C16" t="n">
+        <v>52.33473706098807</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43101.70833333334</v>
+      </c>
+      <c r="B17" t="n">
+        <v>35.31286976631884</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50.19596629703458</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43101.75</v>
+      </c>
+      <c r="B18" t="n">
+        <v>25.83785739473363</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47.8635908819183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43101.79166666666</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18.49078851382524</v>
+      </c>
+      <c r="C19" t="n">
+        <v>37.80593307494156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43101.83333333334</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.81135031878672</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23.72043473773225</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43101.875</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52.325</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.377749323933808</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43101.91666666666</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48.95808314575903</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.812009967441861</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43101.95833333334</v>
+      </c>
+      <c r="B23" t="n">
+        <v>37.91711655679155</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.865880398837209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43102</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25.9466953121862</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.194684386046512</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43102.04166666666</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13.09308468147299</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5555980069767442</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43102.08333333334</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
